--- a/Words.xlsx
+++ b/Words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\PycharmProjects\ders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700A3AE5-B15A-4DA0-8FA3-B7DB70946B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A752A6-3A83-4266-B758-0E3E63D320EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>English</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Sevimli</t>
   </si>
   <si>
-    <t>Through</t>
-  </si>
-  <si>
-    <t>Başından Sonuna Kadar</t>
-  </si>
-  <si>
     <t>Steeply</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>Heights</t>
   </si>
   <si>
-    <t>Abruptly</t>
-  </si>
-  <si>
-    <t>Birden Bire Ansızın Aniden</t>
-  </si>
-  <si>
     <t>Heath</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>Ulaşmak</t>
   </si>
   <si>
-    <t>Otlak</t>
-  </si>
-  <si>
     <t>Çayır</t>
   </si>
   <si>
@@ -277,6 +262,246 @@
   </si>
   <si>
     <t>Dağınık</t>
+  </si>
+  <si>
+    <t>happy to help</t>
+  </si>
+  <si>
+    <t>seve seve</t>
+  </si>
+  <si>
+    <t>here you go</t>
+  </si>
+  <si>
+    <t>buyrun</t>
+  </si>
+  <si>
+    <t>Otlak-Yeşillik</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Kırmak</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>Köprü</t>
+  </si>
+  <si>
+    <t>Brush</t>
+  </si>
+  <si>
+    <t>Fırça</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>İnşa etmek</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Tereyağı</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Hesap Makinası</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Takvim</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Aramak</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Başkent</t>
+  </si>
+  <si>
+    <t>Capenter</t>
+  </si>
+  <si>
+    <t>Marangoz</t>
+  </si>
+  <si>
+    <t>Carpet</t>
+  </si>
+  <si>
+    <t>Halı</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>Taşımak</t>
+  </si>
+  <si>
+    <t>Cartoon</t>
+  </si>
+  <si>
+    <t>Çizgi Film</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Sandalye</t>
+  </si>
+  <si>
+    <t>Cheap</t>
+  </si>
+  <si>
+    <t>Ucuz</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Peynir</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Kiraz</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Tavuk</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Kilise</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Temizlemek</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Açık-Net</t>
+  </si>
+  <si>
+    <t>Clever</t>
+  </si>
+  <si>
+    <t>Akıllı</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Saat</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Bulut</t>
+  </si>
+  <si>
+    <t>Coat</t>
+  </si>
+  <si>
+    <t>Kaban</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Soğuk</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Şirket</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Devam Etmek</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Ülke</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>İnek</t>
+  </si>
+  <si>
+    <t>Cry</t>
+  </si>
+  <si>
+    <t>Ağlamak</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Günlük</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Koyu</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>Diş Hekimi</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>Zor</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Kirli</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Boşanmış</t>
   </si>
 </sst>
 </file>
@@ -333,14 +558,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -355,6 +572,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -435,13 +660,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,14 +954,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="2"/>
     <col min="4" max="4" width="48.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="53.140625" style="2" customWidth="1"/>
@@ -744,10 +969,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -755,7 +980,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -763,7 +988,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -771,7 +996,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -779,151 +1004,151 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>78</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>81</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>75</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -931,7 +1156,7 @@
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -939,7 +1164,7 @@
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -947,7 +1172,7 @@
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -955,7 +1180,7 @@
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -963,7 +1188,7 @@
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -971,7 +1196,7 @@
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -979,7 +1204,7 @@
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -987,7 +1212,7 @@
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -995,7 +1220,7 @@
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1003,7 +1228,7 @@
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1011,7 +1236,7 @@
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1019,7 +1244,7 @@
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1027,7 +1252,7 @@
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1035,7 +1260,7 @@
       <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1043,7 +1268,7 @@
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1051,7 +1276,7 @@
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1059,64 +1284,330 @@
       <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>67</v>
+        <v>79</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>81</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="81" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2134,8 +2625,8 @@
     <row r="1095" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1096" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1097" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1098" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1099" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1098" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="1099" ht="21" x14ac:dyDescent="0.25"/>
     <row r="1100" ht="21" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A752A6-3A83-4266-B758-0E3E63D320EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074EC7C8-9774-45CD-9CEB-77D0A66B3E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>Bill</t>
   </si>
   <si>
-    <t>Hesap Fatura</t>
-  </si>
-  <si>
     <t>Boil</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>Boşanmış</t>
+  </si>
+  <si>
+    <t>Hesap</t>
   </si>
 </sst>
 </file>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1061,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1101,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1245,292 +1245,292 @@
         <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B71" s="4" t="b">
         <v>1</v>
@@ -1538,74 +1538,74 @@
     </row>
     <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="81" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074EC7C8-9774-45CD-9CEB-77D0A66B3E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10036F35-F378-49FC-B6ED-04AEEA06A520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -273,9 +273,6 @@
     <t>buyrun</t>
   </si>
   <si>
-    <t>Otlak-Yeşillik</t>
-  </si>
-  <si>
     <t>Break</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>Hesap</t>
+  </si>
+  <si>
+    <t>Yeşillik</t>
   </si>
 </sst>
 </file>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1306,231 +1306,231 @@
     </row>
     <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" s="4" t="b">
         <v>1</v>
@@ -1538,74 +1538,74 @@
     </row>
     <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="81" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10036F35-F378-49FC-B6ED-04AEEA06A520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6291726-581F-4734-AEFC-17C4853E9402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>English</t>
   </si>
@@ -441,15 +441,9 @@
     <t>Devam Etmek</t>
   </si>
   <si>
-    <t>Correct</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Ülke</t>
-  </si>
-  <si>
     <t>Cow</t>
   </si>
   <si>
@@ -502,6 +496,9 @@
   </si>
   <si>
     <t>Yeşillik</t>
+  </si>
+  <si>
+    <t>ülke</t>
   </si>
 </sst>
 </file>
@@ -954,18 +951,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="2"/>
-    <col min="4" max="4" width="48.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="25.7109375" style="2"/>
+    <col min="3" max="3" width="48.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="25.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
@@ -1021,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1241,7 @@
         <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1532,8 +1528,8 @@
       <c r="A71" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="4" t="b">
-        <v>1</v>
+      <c r="B71" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1600,14 +1596,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
+    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2624,10 +2613,7 @@
     <row r="1094" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1095" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1096" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1097" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1098" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="1099" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="1100" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="1100" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6291726-581F-4734-AEFC-17C4853E9402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4846B36D-1253-49C5-9B6F-BDD6F193474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>English</t>
   </si>
@@ -499,6 +499,132 @@
   </si>
   <si>
     <t>ülke</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Kalıcı</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Sorumlu</t>
+  </si>
+  <si>
+    <t>İmportant</t>
+  </si>
+  <si>
+    <t>Önemli</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Araç</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Görsel</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Tarayıcı</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Yazılım</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Donanım</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Animasyon</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Hata</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>Bir çok</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Veri Analisti</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Veri Bilimcisi</t>
+  </si>
+  <si>
+    <t>Cyber Security Expert</t>
+  </si>
+  <si>
+    <t>Siber Güvenlik Uzmanı</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Uzman</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>Ana Ofis</t>
+  </si>
+  <si>
+    <t>Powerful</t>
+  </si>
+  <si>
+    <t>Güçlü</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Güç</t>
+  </si>
+  <si>
+    <t>Tails</t>
+  </si>
+  <si>
+    <t>Kuyruk</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Görev</t>
+  </si>
+  <si>
+    <t>Appetizer</t>
+  </si>
+  <si>
+    <t>Aperatif</t>
   </si>
 </sst>
 </file>
@@ -951,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1596,39 +1722,186 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="113" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="115" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2613,7 +2886,7 @@
     <row r="1094" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1095" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1096" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1100" x14ac:dyDescent="0.3"/>
+    <row r="1100" ht="21" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4846B36D-1253-49C5-9B6F-BDD6F193474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C707936-ECA0-4CF3-9069-A3733E05D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,15 +261,9 @@
     <t>Dağınık</t>
   </si>
   <si>
-    <t>happy to help</t>
-  </si>
-  <si>
     <t>seve seve</t>
   </si>
   <si>
-    <t>here you go</t>
-  </si>
-  <si>
     <t>buyrun</t>
   </si>
   <si>
@@ -447,9 +441,6 @@
     <t>Cow</t>
   </si>
   <si>
-    <t>İnek</t>
-  </si>
-  <si>
     <t>Cry</t>
   </si>
   <si>
@@ -625,6 +616,15 @@
   </si>
   <si>
     <t>Aperatif</t>
+  </si>
+  <si>
+    <t>inek</t>
+  </si>
+  <si>
+    <t>Happy to help</t>
+  </si>
+  <si>
+    <t>Here you go</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1412,482 +1412,482 @@
     </row>
     <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C707936-ECA0-4CF3-9069-A3733E05D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B080AB8-B019-4DD9-9374-920B456B1C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>English</t>
   </si>
@@ -625,6 +625,12 @@
   </si>
   <si>
     <t>Here you go</t>
+  </si>
+  <si>
+    <t>Due date</t>
+  </si>
+  <si>
+    <t>Teslim Tarihi</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1890,7 +1896,14 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B080AB8-B019-4DD9-9374-920B456B1C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3A79A7-8291-4276-9BFA-5FC78D03B7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>English</t>
   </si>
@@ -631,6 +631,42 @@
   </si>
   <si>
     <t>Teslim Tarihi</t>
+  </si>
+  <si>
+    <t>Some</t>
+  </si>
+  <si>
+    <t>Biraz</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>Her şey</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Hiçbir şey</t>
+  </si>
+  <si>
+    <t>Something</t>
+  </si>
+  <si>
+    <t>Bir şey (olumlu)</t>
+  </si>
+  <si>
+    <t>Anything</t>
+  </si>
+  <si>
+    <t>Hiçbir şey (olumsuz ve soru)</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Aynı</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1904,12 +1940,54 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3A79A7-8291-4276-9BFA-5FC78D03B7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BF717-DAFD-4C7E-AD41-6C23B8AA2FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="2370" windowWidth="20910" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="340">
   <si>
     <t>English</t>
   </si>
@@ -667,6 +667,384 @@
   </si>
   <si>
     <t>Aynı</t>
+  </si>
+  <si>
+    <t>Skating</t>
+  </si>
+  <si>
+    <t>Paten</t>
+  </si>
+  <si>
+    <t>Cottage</t>
+  </si>
+  <si>
+    <t>Kulübe</t>
+  </si>
+  <si>
+    <t>ill</t>
+  </si>
+  <si>
+    <t>Hasta</t>
+  </si>
+  <si>
+    <t>Easily</t>
+  </si>
+  <si>
+    <t>Rahatlıkla</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Teller</t>
+  </si>
+  <si>
+    <t>Hurt</t>
+  </si>
+  <si>
+    <t>Acıtmak</t>
+  </si>
+  <si>
+    <t>Tie</t>
+  </si>
+  <si>
+    <t>Bağlamak</t>
+  </si>
+  <si>
+    <t>Pocket</t>
+  </si>
+  <si>
+    <t>Cep</t>
+  </si>
+  <si>
+    <t>Proceeds</t>
+  </si>
+  <si>
+    <t>Gelir</t>
+  </si>
+  <si>
+    <t>Fastens</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>Yalan</t>
+  </si>
+  <si>
+    <t>anymore</t>
+  </si>
+  <si>
+    <t>Artık</t>
+  </si>
+  <si>
+    <t>Hear</t>
+  </si>
+  <si>
+    <t>Duymak</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>Destek</t>
+  </si>
+  <si>
+    <t>Tell</t>
+  </si>
+  <si>
+    <t>Anlat</t>
+  </si>
+  <si>
+    <t>Early</t>
+  </si>
+  <si>
+    <t>Erken</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>Acil</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Boş</t>
+  </si>
+  <si>
+    <t>Engaged</t>
+  </si>
+  <si>
+    <t>Nişanlı</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Mühendis</t>
+  </si>
+  <si>
+    <t>Enough</t>
+  </si>
+  <si>
+    <t>Yeterli</t>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>Silgi</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Uzak</t>
+  </si>
+  <si>
+    <t>Finger</t>
+  </si>
+  <si>
+    <t>Parmak</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Uçuş</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Zemin</t>
+  </si>
+  <si>
+    <t>Fork</t>
+  </si>
+  <si>
+    <t>Çatal</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>Arkadaşça</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Meyve</t>
+  </si>
+  <si>
+    <t>Funny</t>
+  </si>
+  <si>
+    <t>Komik</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>Bahçe</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Bardak</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>Tabanca</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Alışkanlık</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>Yarım</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>El</t>
+  </si>
+  <si>
+    <t>Handsome</t>
+  </si>
+  <si>
+    <t>Yakışıklı</t>
+  </si>
+  <si>
+    <t>Hate</t>
+  </si>
+  <si>
+    <t>Nefret Etmek</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Sağlık</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Kalp</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>Ağır</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>Bulmak</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Göster</t>
+  </si>
+  <si>
+    <t>Take</t>
+  </si>
+  <si>
+    <t>Almak</t>
+  </si>
+  <si>
+    <t>Elegant</t>
+  </si>
+  <si>
+    <t>Zarif</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>Süratli</t>
+  </si>
+  <si>
+    <t>Soon</t>
+  </si>
+  <si>
+    <t>Birazdan</t>
+  </si>
+  <si>
+    <t>Laughing</t>
+  </si>
+  <si>
+    <t>Gülmek</t>
+  </si>
+  <si>
+    <t>Along</t>
+  </si>
+  <si>
+    <t>Birlikte</t>
+  </si>
+  <si>
+    <t>Tumbles</t>
+  </si>
+  <si>
+    <t>Takla</t>
+  </si>
+  <si>
+    <t>Falls</t>
+  </si>
+  <si>
+    <t>Şelale</t>
+  </si>
+  <si>
+    <t>Catch</t>
+  </si>
+  <si>
+    <t>Yakalamak</t>
+  </si>
+  <si>
+    <t>Doorway</t>
+  </si>
+  <si>
+    <t>Menfez</t>
+  </si>
+  <si>
+    <t>Pretty</t>
+  </si>
+  <si>
+    <t>Şirin</t>
+  </si>
+  <si>
+    <t>Ditch</t>
+  </si>
+  <si>
+    <t>Hendek</t>
+  </si>
+  <si>
+    <t>Pond</t>
+  </si>
+  <si>
+    <t>Havuz</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Nehir</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Göl</t>
+  </si>
+  <si>
+    <t>Bewildering</t>
+  </si>
+  <si>
+    <t>Şaşırtıcı</t>
+  </si>
+  <si>
+    <t>Wooden</t>
+  </si>
+  <si>
+    <t>Ahşap</t>
+  </si>
+  <si>
+    <t>Windmills</t>
+  </si>
+  <si>
+    <t>Yel Değirmeni</t>
+  </si>
+  <si>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Rüzgarlı</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1988,75 +2366,523 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="177" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="178" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="179" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BF717-DAFD-4C7E-AD41-6C23B8AA2FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F221328-B6D5-4EC3-86A5-759C7B942523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="2370" windowWidth="20910" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -54,27 +49,51 @@
     <t>Heights</t>
   </si>
   <si>
+    <t>Tepe</t>
+  </si>
+  <si>
     <t>Heath</t>
   </si>
   <si>
+    <t>Fundalık</t>
+  </si>
+  <si>
     <t>Grass</t>
   </si>
   <si>
+    <t>Yeşillik</t>
+  </si>
+  <si>
     <t>Pungent</t>
   </si>
   <si>
+    <t>Acı</t>
+  </si>
+  <si>
     <t>Herbage</t>
   </si>
   <si>
+    <t>Çayır</t>
+  </si>
+  <si>
     <t>Wayfarer</t>
   </si>
   <si>
+    <t>Yaya</t>
+  </si>
+  <si>
     <t>Mountain</t>
   </si>
   <si>
+    <t>Dağ</t>
+  </si>
+  <si>
     <t>Region</t>
   </si>
   <si>
+    <t>Bölge</t>
+  </si>
+  <si>
     <t>Climbs</t>
   </si>
   <si>
@@ -84,9 +103,15 @@
     <t>Vigorous</t>
   </si>
   <si>
+    <t>Dinç</t>
+  </si>
+  <si>
     <t>Around</t>
   </si>
   <si>
+    <t>Çevrede</t>
+  </si>
+  <si>
     <t>Shoulders</t>
   </si>
   <si>
@@ -96,15 +121,27 @@
     <t>Shawl</t>
   </si>
   <si>
+    <t>Şal</t>
+  </si>
+  <si>
     <t>Climbing</t>
   </si>
   <si>
+    <t>Tırmanış</t>
+  </si>
+  <si>
     <t>Reach</t>
   </si>
   <si>
+    <t>Ulaşmak</t>
+  </si>
+  <si>
     <t>Scattered</t>
   </si>
   <si>
+    <t>Dağınık</t>
+  </si>
+  <si>
     <t>Seem</t>
   </si>
   <si>
@@ -192,6 +229,9 @@
     <t>Bill</t>
   </si>
   <si>
+    <t>Hesap</t>
+  </si>
+  <si>
     <t>Boil</t>
   </si>
   <si>
@@ -222,48 +262,15 @@
     <t>Cesur</t>
   </si>
   <si>
-    <t>Tepe</t>
-  </si>
-  <si>
-    <t>Fundalık</t>
-  </si>
-  <si>
-    <t>Acı</t>
-  </si>
-  <si>
-    <t>Yaya</t>
-  </si>
-  <si>
-    <t>Bölge</t>
-  </si>
-  <si>
-    <t>Çevrede</t>
-  </si>
-  <si>
-    <t>Şal</t>
-  </si>
-  <si>
-    <t>Ulaşmak</t>
-  </si>
-  <si>
-    <t>Çayır</t>
-  </si>
-  <si>
-    <t>Dağ</t>
-  </si>
-  <si>
-    <t>Dinç</t>
-  </si>
-  <si>
-    <t>Tırmanış</t>
-  </si>
-  <si>
-    <t>Dağınık</t>
+    <t>Happy to help</t>
   </si>
   <si>
     <t>seve seve</t>
   </si>
   <si>
+    <t>Here you go</t>
+  </si>
+  <si>
     <t>buyrun</t>
   </si>
   <si>
@@ -438,9 +445,15 @@
     <t>Country</t>
   </si>
   <si>
+    <t>ülke</t>
+  </si>
+  <si>
     <t>Cow</t>
   </si>
   <si>
+    <t>inek</t>
+  </si>
+  <si>
     <t>Cry</t>
   </si>
   <si>
@@ -483,15 +496,6 @@
     <t>Boşanmış</t>
   </si>
   <si>
-    <t>Hesap</t>
-  </si>
-  <si>
-    <t>Yeşillik</t>
-  </si>
-  <si>
-    <t>ülke</t>
-  </si>
-  <si>
     <t>Permanent</t>
   </si>
   <si>
@@ -616,15 +620,6 @@
   </si>
   <si>
     <t>Aperatif</t>
-  </si>
-  <si>
-    <t>inek</t>
-  </si>
-  <si>
-    <t>Happy to help</t>
-  </si>
-  <si>
-    <t>Here you go</t>
   </si>
   <si>
     <t>Due date</t>
@@ -1188,9 +1183,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1498,7 +1493,7 @@
   <dimension ref="A1:B1100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+      <selection activeCell="A172" sqref="A172:XFD172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1507,10 +1502,11 @@
     <col min="2" max="2" width="67.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="53.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="25.7109375" style="2"/>
+    <col min="5" max="5" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="25.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1547,767 +1543,767 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2543,7 @@
         <v>257</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2878,7 +2874,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172"/>
+      <c r="B172"/>
+    </row>
     <row r="173" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="174" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3803,9 +3802,9 @@
     <row r="1094" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1095" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1096" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1100" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="1100" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F221328-B6D5-4EC3-86A5-759C7B942523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFBF37E-2D40-4F9C-ABC0-CDE950CD0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="342">
   <si>
     <t>English</t>
   </si>
@@ -1040,6 +1040,12 @@
   </si>
   <si>
     <t>Rüzgarlı</t>
+  </si>
+  <si>
+    <t>Spin</t>
+  </si>
+  <si>
+    <t>Döndürmek</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1193,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,6 +1211,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,7 +1505,7 @@
   <dimension ref="A1:B1100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:XFD172"/>
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1502,8 +1514,8 @@
     <col min="2" max="2" width="67.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="53.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="25.7109375" style="2"/>
+    <col min="5" max="6" width="25.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="25.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,11 +2886,18 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172"/>
-      <c r="B172"/>
-    </row>
-    <row r="173" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173"/>
+      <c r="B173"/>
+    </row>
     <row r="174" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFBF37E-2D40-4F9C-ABC0-CDE950CD0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF8521E-7938-402B-A5A6-A1E32A1E1F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="276" yWindow="-108" windowWidth="22872" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="346">
   <si>
     <t>English</t>
   </si>
@@ -1046,6 +1046,18 @@
   </si>
   <si>
     <t>Döndürmek</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Doktor</t>
+  </si>
+  <si>
+    <t>Advertiser</t>
+  </si>
+  <si>
+    <t>Reklamcı</t>
   </si>
 </sst>
 </file>
@@ -1504,21 +1516,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="22.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="22.2" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="25.7109375" style="2"/>
+    <col min="1" max="1" width="58.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.109375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="25.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1574,7 +1586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1590,7 +1602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
@@ -1774,7 +1786,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -1870,7 +1882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
@@ -1886,7 +1898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
@@ -1926,7 +1938,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
@@ -1934,7 +1946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>114</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>116</v>
       </c>
@@ -1990,7 +2002,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>118</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
@@ -2006,7 +2018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>124</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>128</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>130</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>132</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>136</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
@@ -2078,7 +2090,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>142</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>144</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>146</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>148</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>152</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>154</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>156</v>
       </c>
@@ -2150,7 +2162,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>158</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>160</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>162</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>164</v>
       </c>
@@ -2182,7 +2194,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>166</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>168</v>
       </c>
@@ -2198,7 +2210,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>170</v>
       </c>
@@ -2206,7 +2218,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>172</v>
       </c>
@@ -2214,7 +2226,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>174</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>176</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>178</v>
       </c>
@@ -2238,7 +2250,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>180</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>182</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>184</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>186</v>
       </c>
@@ -2270,7 +2282,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>188</v>
       </c>
@@ -2278,7 +2290,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>190</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>192</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>194</v>
       </c>
@@ -2302,7 +2314,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>196</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
@@ -2318,7 +2330,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>200</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>202</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>204</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>206</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>208</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>210</v>
       </c>
@@ -2366,7 +2378,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>212</v>
       </c>
@@ -2374,7 +2386,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>214</v>
       </c>
@@ -2382,7 +2394,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>216</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>218</v>
       </c>
@@ -2398,7 +2410,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>220</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>222</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>224</v>
       </c>
@@ -2422,7 +2434,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>226</v>
       </c>
@@ -2430,7 +2442,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>228</v>
       </c>
@@ -2438,7 +2450,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>230</v>
       </c>
@@ -2446,7 +2458,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>232</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>233</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>235</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>237</v>
       </c>
@@ -2478,7 +2490,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>239</v>
       </c>
@@ -2486,7 +2498,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>241</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>243</v>
       </c>
@@ -2502,7 +2514,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>245</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>247</v>
       </c>
@@ -2518,7 +2530,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>249</v>
       </c>
@@ -2526,7 +2538,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>251</v>
       </c>
@@ -2534,7 +2546,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>253</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>255</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>257</v>
       </c>
@@ -2558,7 +2570,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>258</v>
       </c>
@@ -2566,7 +2578,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>260</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>262</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>264</v>
       </c>
@@ -2590,7 +2602,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>266</v>
       </c>
@@ -2598,7 +2610,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>268</v>
       </c>
@@ -2606,7 +2618,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>270</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>272</v>
       </c>
@@ -2622,7 +2634,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>274</v>
       </c>
@@ -2630,7 +2642,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>276</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>278</v>
       </c>
@@ -2646,7 +2658,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>280</v>
       </c>
@@ -2654,7 +2666,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>282</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>284</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>286</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>288</v>
       </c>
@@ -2686,7 +2698,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>290</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>292</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>294</v>
       </c>
@@ -2710,7 +2722,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>296</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>298</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>300</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>302</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>304</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>306</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>308</v>
       </c>
@@ -2766,7 +2778,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>310</v>
       </c>
@@ -2774,7 +2786,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>312</v>
       </c>
@@ -2782,7 +2794,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>314</v>
       </c>
@@ -2790,7 +2802,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>316</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>318</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>320</v>
       </c>
@@ -2814,7 +2826,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>322</v>
       </c>
@@ -2822,7 +2834,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>324</v>
       </c>
@@ -2830,7 +2842,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>326</v>
       </c>
@@ -2838,7 +2850,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>328</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>330</v>
       </c>
@@ -2854,7 +2866,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>332</v>
       </c>
@@ -2862,7 +2874,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>334</v>
       </c>
@@ -2870,7 +2882,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>336</v>
       </c>
@@ -2878,7 +2890,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>338</v>
       </c>
@@ -2886,7 +2898,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>340</v>
       </c>
@@ -2894,934 +2906,952 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173"/>
-      <c r="B173"/>
-    </row>
-    <row r="174" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1004" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1005" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1006" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1007" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1008" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1009" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1010" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1011" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1012" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1013" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1014" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1015" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1016" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1017" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1018" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1019" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1020" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1021" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1022" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1023" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1024" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1025" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1026" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1027" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1028" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1029" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1030" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1031" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1032" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1033" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1034" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1035" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1036" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1037" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1038" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1039" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1040" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1041" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1042" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1043" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1044" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1045" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1046" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1047" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1048" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1049" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1050" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1051" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1052" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1053" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1054" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1055" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1056" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1057" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1058" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1059" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1060" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1061" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1062" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1063" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1064" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1065" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1066" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1067" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1068" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1069" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1070" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1071" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1072" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1073" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1074" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1075" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1076" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1077" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1078" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1079" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1080" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1081" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1082" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1083" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1084" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1085" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1086" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1087" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1088" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1089" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1090" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1091" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1092" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1093" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1094" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1095" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1096" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1100" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="174" spans="1:2" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>52</v>
+      </c>
+      <c r="B175" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="177" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1001" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1002" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1003" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1004" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1005" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1006" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1007" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1008" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1009" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1010" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1011" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1012" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1013" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1014" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1015" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1016" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1017" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1018" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1019" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1020" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1021" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1022" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1023" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1024" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1025" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1026" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1027" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1028" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1029" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1030" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1031" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1032" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1033" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1034" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1035" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1036" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1037" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1038" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1039" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1040" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1041" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1042" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1043" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1044" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1045" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1046" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1047" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1048" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1049" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1050" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1051" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1052" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1053" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1054" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1055" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1056" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1057" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1058" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1059" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1060" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1061" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1062" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1063" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1064" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1065" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1066" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1067" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1068" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1069" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1070" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1071" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1072" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1073" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1074" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1075" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1076" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1077" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1078" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1079" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1080" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1081" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1082" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1083" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1084" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1085" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1086" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1087" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1088" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1089" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1090" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1091" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1092" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1093" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1094" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1095" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1096" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1100" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
